--- a/ENTREGA DE ATIVIDADES/Atividade B1-4/MAP-DE-MEMORIA.xlsx
+++ b/ENTREGA DE ATIVIDADES/Atividade B1-4/MAP-DE-MEMORIA.xlsx
@@ -4,6 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="PROGRAMA-01" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="PROGRAMA-02" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="PROGRAMA-03" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="PROGRAMA-04" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>0x0</t>
   </si>
@@ -61,7 +64,7 @@
     <t>0x0F</t>
   </si>
   <si>
-    <t>0x10</t>
+    <t>0x10(novo)</t>
   </si>
   <si>
     <t>0x11</t>
@@ -82,8 +85,7 @@
     <t>novo</t>
   </si>
   <si>
-    <t xml:space="preserve">linha   l       i       p       novo
-10      -       -       -       -
+    <t xml:space="preserve">10      -       -       -       -
 11      -       -       -       -
 12      -       -       -       -
 13      -       -       -       -
@@ -133,6 +135,377 @@
 57      0x06    -       0x0E    0x10
 58      0x06    -       0x0E    0x10
 </t>
+  </si>
+  <si>
+    <t>0x3(v)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10      -       -       -       -       -       
+11      -       -       -       -       -       
+12      -       -       -       -       -       
+13      -       -       -       -       -       
+14      -       -       -       -       -       
+15      -       -       -       -       -       
+16      -       -       -       -       -       
+17      -       -       -       -       -       
+18      -       -       -       -       -       
+19      -       -       -       -       -       
+20      -       -       -       -       -       
+21      -       -       -       -       -       
+22      -       -       -       -       -       
+23      -       -       -       -       -       
+24      -       -       -       -       -       
+25      -       -       -       -       -       
+26      -       -       -       -       -       
+27      -       -       -       -       -       
+28      NULL    -       NULL    NULL    -       
+29      0x06    -       0x0E    0x10    -       
+30      0x06    -       0x0E    0x10    -       
+31      0x06    10      0x0E    0x10    -       
+32      0x06    20      0x0E    0x10    -       
+33      0x06    23      0x0E    0x10    -       
+34      0x06    1       0x0E    0x10    -       
+35      0x06    22      0x0E    0x10    -       
+36      0x06    100     0x0E    0x10    -       
+37      0x06    45      0x0E    0x10    -       
+38      0x06    30      0x0E    0x10    -       
+39      0x06    -       0x0E    0x10    -       
+40      0x06    -       0x0E    0x10    -       
+41      0x06    -       0x0E    0x10    -       
+42      0x06    -       0x0E    0x10    -       
+43      0x06    -       0x0E    0x10    -       
+44      0x06    -       0x0E    0x10    -       
+45      0x06    -       0x0E    0x10    -       
+46      0x06    -       0x0E    0x10    -       
+47      0x06    -       0x0E    0x10    -       
+48      0x06    -       0x0E    0x10    -       
+49      0x06    -       0x0E    0x10    -       
+50      0x06    -       0x0E    0x10    -       
+51      0x06    -       0x0E    0x10    -       
+52      0x06    -       0x0E    0x10    -       
+53      0x06    -       0x0E    0x10    -       
+54      0x06    -       0x0E    0x10    -       
+55      0x06    -       0x0E    0x10    -       
+56      0x06    -       0x0E    0x10    -       
+57      0x06    -       0x0E    0x10    -       
+58      0x06    -       0x0E    0x10    -       
+59      0x06    -       0x0E    0x10    -       
+60      0x06    -       0x0E    0x10    -       
+61      0x06    -       0x0E    0x10    0x03    
+62      0x06    -       0x0E    0x10    0x03    
+63      0x06    -       0x0E    0x10    0x03    
+64      0x06    -       0x0E    0x10    0x03    
+65      0x06    -       0x0E    0x10    0x03    
+66      0x06    -       0x0E    0x10    0x03    
+67      0x06    -       0x0E    0x10    0x03    
+68      0x06    -       0x0E    0x10    0x03    
+69      0x06    -       0x0E    0x10    0x03    
+70      0x06    -       0x0E    0x10    0x03    
+71      0x06    -       0x0E    0x10    0x03    
+72      0x06    -       0x0E    0x10    0x03    
+73      0x06    -       0x0E    0x10    0x03    
+74      0x06    -       0x0E    0x10    0x03    
+75      0x06    -       0x0E    0x10    0x03    
+76      0x06    -       0x0E    0x10    0x03    
+77      0x06    -       0x0E    0x10    0x03    
+78      0x06    -       0x0E    0x10    0x03    
+79      0x06    -       0x0E    0x10    0x03    
+80      0x06    -       0x0E    0x10    0x03    
+81      0x06    -       0x0E    0x10    0x03    
+82      0x06    -       0x0E    0x10    0x03    
+83      0x06    -       0x0E    0x10    0x03    
+84      0x06    -       0x0E    0x10    0x03    
+85      0x06    -       0x0E    0x10    0x03    
+86      0x06    -       0x0E    0x10    0x03    
+87      0x06    -       0x0E    0x10    0x03    
+88      0x06    -       0x0E    0x10    0x03    
+89      0x06    -       0x0E    0x10    0x03    
+90      0x06    -       0x0E    0x10    0x03    
+91      0x06    -       0x0E    0x10    0x03    
+92      0x06    -       0x0E    0x10    0x03    
+93      0x06    -       0x0E    0x10    0x03    
+94      0x06    -       0x0E    0x10    0x03    
+95      0x06    -       0x0E    0x10    0x03    
+</t>
+  </si>
+  <si>
+    <t>0x1(t)</t>
+  </si>
+  <si>
+    <t>0x0B(ant)</t>
+  </si>
+  <si>
+    <t>0x0D(ant)</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10      -       -       -       -       -       -
+11      -       -       -       -       -       -
+12      -       -       -       -       -       -
+13      -       -       -       -       -       -
+14      -       -       -       -       -       -
+15      -       -       -       -       -       -
+16      -       -       -       -       -       -
+17      -       -       -       -       -       -
+18      -       -       -       -       -       -
+19      -       -       -       -       -       -
+20      -       -       -       -       -       -
+21      -       -       -       -       -       -
+22      -       -       -       -       -       -
+23      -       -       -       -       -       -
+24      -       -       -       -       -       -
+25      -       -       -       -       -       -
+26      -       -       -       -       -       -
+27      -       -       -       -       -       -
+28      NULL    -       NULL    NULL    -       -
+29      0x06    -       0x0E    0x10    -       0x0D
+30      0x06    -       0x0E    0x10    -       0x0D
+31      0x06    10      0x0E    0x10    -       0x0D
+32      0x06    20      0x0E    0x10    -       0x0D
+33      0x06    23      0x0E    0x10    -       0x0D
+34      0x06    1       0x0E    0x10    -       0x0D
+35      0x06    22      0x0E    0x10    -       0x0D
+36      0x06    100     0x0E    0x10    -       0x0D
+37      0x06    45      0x0E    0x10    -       0x0D
+38      0x06    30      0x0E    0x10    -       0x0D
+39      0x06    -       0x0E    0x10    -       0x0D
+40      0x06    -       0x0E    0x10    -       0x0D
+41      0x06    -       0x0E    0x10    -       0x0D
+42      0x06    -       0x0E    0x10    -       0x0D
+43      0x06    -       0x0E    0x10    -       0x0D
+44      0x06    -       0x0E    0x10    -       0x0D
+45      0x06    -       0x0E    0x10    -       0x0D
+46      0x06    -       0x0E    0x10    -       0x0D
+47      0x06    -       0x0E    0x10    -       0x0D
+48      0x06    -       0x0E    0x10    -       0x0D
+49      0x06    -       0x0E    0x10    -       0x0D
+50      0x06    -       0x0E    0x10    -       0x0D
+51      0x06    -       0x0E    0x10    -       0x0D
+52      0x06    -       0x0E    0x10    -       0x0D
+53      0x06    -       0x0E    0x10    -       0x0D
+54      0x06    -       0x0E    0x10    -       0x0D
+55      0x06    -       0x0E    0x10    -       0x0D
+56      0x06    -       0x0E    0x10    -       0x0D
+57      0x06    -       0x0E    0x10    -       0x0D
+58      0x06    -       0x0E    0x10    -       0x0D
+59      0x06    -       0x0E    0x10    -       0x0D
+60      0x06    -       0x0E    0x10    -       0x0D
+61      0x06    -       0x0E    0x10    0x03    0x0D
+62      0x06    -       0x0E    0x10    0x03    0x0D
+63      0x06    -       0x0E    0x10    0x03    0x0D
+64      0x06    -       0x0E    0x10    0x03    0x0D
+65      0x06    -       0x0E    0x10    0x03    0x0D
+66      0x06    -       0x0E    0x10    0x03    0x0D
+67      0x06    -       0x0E    0x10    0x03    0x0D
+68      0x06    -       0x0E    0x10    0x03    0x0D
+69      0x06    -       0x0E    0x10    0x03    0x0D
+70      0x06    -       0x0E    0x10    0x03    0x0D
+71      0x06    -       0x0E    0x10    0x03    0x0D
+72      0x06    -       0x0E    0x10    0x03    0x0D
+73      0x06    -       0x0E    0x10    0x03    0x0D
+74      0x06    -       0x0E    0x10    0x03    0x0D
+75      0x06    -       0x0E    0x10    0x03    0x0D
+76      0x06    -       0x0E    0x10    0x03    0x0D
+77      0x06    -       0x0E    0x10    0x03    0x0D
+78      0x06    -       0x0E    0x10    0x03    0x0D
+79      0x06    -       0x0E    0x10    0x03    0x0D
+80      0x06    -       0x0E    0x10    0x03    0x0D
+81      0x06    -       0x0E    0x10    0x03    0x0D
+82      0x06    -       0x0E    0x10    0x03    0x0D
+83      0x06    -       0x0E    0x10    0x03    0x0D
+84      0x06    -       0x0E    0x10    0x03    0x0D
+85      0x06    -       0x0E    0x10    0x03    0x0D
+86      0x06    -       0x0E    0x10    0x03    0x0D
+87      0x06    -       0x0E    0x10    0x03    0x0D
+88      0x06    -       0x0E    0x10    0x03    0x0D
+89      0x06    -       0x0E    0x10    0x03    0x0D
+90      0x06    -       0x0E    0x10    0x03    0x0D
+91      0x06    -       0x0E    0x10    0x03    0x0D
+92      0x06    -       0x0E    0x10    0x03    0x0D
+93      0x06    -       0x0E    0x10    0x03    0x0D
+94      0x06    -       0x0E    0x10    0x03    0x0D
+95      0x06    -       0x0E    0x10    0x03    0x0D
+96      0x06    -       0x0E    0x10    0x03    0x0D
+97      0x06    -       0x0E    0x10    0x03    0x0D
+98      0x06    -       0x0E    0x10    0x03    0x0D
+99      0x06    -       0x0E    0x10    0x03    0x0D
+100     0x06    -       0x0E    0x10    0x03    0x0D
+101     0x06    -       0x0E    0x10    0x03    0x0D
+102     0x06    -       0x0E    0x10    0x03    0x0D
+103     0x06    -       0x0E    0x10    0x03    0x0D
+104     0x06    -       0x0E    0x10    0x03    0x0D
+105     0x06    -       0x0E    0x10    0x03    0x0D
+106     0x06    -       0x0E    0x10    0x03    0x0D
+107     0x06    -       0x0E    0x10    0x03    0x0D
+108     0x06    -       0x0E    0x10    0x03    0x0D
+109     0x06    -       0x0E    0x10    0x03    0x0D
+110     0x06    -       0x0E    0x10    0x03    0x0D
+111     0x06    -       0x0E    0x10    0x03    0x0D
+112     0x06    -       0x0E    0x10    0x03    0x0D
+113     0x06    -       0x0E    0x10    0x03    0x0D
+114     0x06    -       0x0E    0x10    0x03    0x0D
+115     0x06    -       0x0E    0x10    0x03    0x0D
+116     0x06    -       0x0E    0x10    0x03    0x0D
+117     0x06    -       0x0E    0x10    0x03    0x0D
+118     0x06    -       0x0E    0x10    0x03    0x0D
+119     0x06    -       0x0E    0x10    0x03    0x0D
+120     0x06    -       0x0E    0x10    0x03    0x0D
+121     0x06    -       0x0E    0x10    0x03    0x0D
+122     0x06    -       0x0E    0x10    0x03    0x0D
+123     0x06    -       0x0E    0x10    0x03    0x0D
+124     0x06    -       0x0E    0x10    0x03    0x0D
+125     0x06    -       0x0E    0x10    0x03    0x0D
+126     0x06    -       0x0E    0x10    0x03    0x0D
+127     0x06    -       0x0E    0x10    0x03    0x0D
+128     0x06    -       0x0E    0x10    0x03    0x0D
+129     0x06    -       0x0E    0x10    0x03    0x0D
+130     0x06    -       0x0E    0x10    0x03    0x0D
+131     0x06    -       0x0E    0x10    0x03    0x0D
+</t>
+  </si>
+  <si>
+    <t>10      -       -       -       -       -       -
+11      -       -       -       -       -       -
+12      -       -       -       -       -       -
+13      -       -       -       -       -       -
+14      -       -       -       -       -       -
+15      -       -       -       -       -       -
+16      -       -       -       -       -       -
+17      -       -       -       -       -       -
+18      -       -       -       -       -       -
+19      -       -       -       -       -       -
+20      -       -       -       -       -       -
+21      -       -       -       -       -       -
+22      -       -       -       -       -       -
+23      -       -       -       -       -       -
+24      -       -       -       -       -       -
+25      -       -       -       -       -       -
+26      -       -       -       -       -       -
+27      -       -       -       -       -       -
+28      NULL    -       NULL    NULL    -       -
+29      0x06    -       0x0E    0x10    -       0x0D
+30      0x06    -       0x0E    0x10    -       0x0D
+31      0x06    10      0x0E    0x10    -       0x0D
+32      0x06    20      0x0E    0x10    -       0x0D
+33      0x06    23      0x0E    0x10    -       0x0D
+34      0x06    1       0x0E    0x10    -       0x0D
+35      0x06    22      0x0E    0x10    -       0x0D
+36      0x06    100     0x0E    0x10    -       0x0D
+37      0x06    45      0x0E    0x10    -       0x0D
+38      0x06    30      0x0E    0x10    -       0x0D
+39      0x06    -       0x0E    0x10    -       0x0D
+40      0x06    -       0x0E    0x10    -       0x0D
+41      0x06    -       0x0E    0x10    -       0x0D
+42      0x06    -       0x0E    0x10    -       0x0D
+43      0x06    -       0x0E    0x10    -       0x0D
+44      0x06    -       0x0E    0x10    -       0x0D
+45      0x06    -       0x0E    0x10    -       0x0D
+46      0x06    -       0x0E    0x10    -       0x0D
+47      0x06    -       0x0E    0x10    -       0x0D
+48      0x06    -       0x0E    0x10    -       0x0D
+49      0x06    -       0x0E    0x10    -       0x0D
+50      0x06    -       0x0E    0x10    -       0x0D
+51      0x06    -       0x0E    0x10    -       0x0D
+52      0x06    -       0x0E    0x10    -       0x0D
+53      0x06    -       0x0E    0x10    -       0x0D
+54      0x06    -       0x0E    0x10    -       0x0D
+55      0x06    -       0x0E    0x10    -       0x0D
+56      0x06    -       0x0E    0x10    -       0x0D
+57      0x06    -       0x0E    0x10    -       0x0D
+58      0x06    -       0x0E    0x10    -       0x0D
+59      0x06    -       0x0E    0x10    -       0x0D
+60      0x06    -       0x0E    0x10    -       0x0D
+61      0x06    -       0x0E    0x10    0x03    0x0D
+62      0x06    -       0x0E    0x10    0x03    0x0D
+63      0x06    -       0x0E    0x10    0x03    0x0D
+64      0x06    -       0x0E    0x10    0x03    0x0D
+65      0x06    -       0x0E    0x10    0x03    0x0D
+66      0x06    -       0x0E    0x10    0x03    0x0D
+67      0x06    -       0x0E    0x10    0x03    0x0D
+68      0x06    -       0x0E    0x10    0x03    0x0D
+69      0x06    -       0x0E    0x10    0x03    0x0D
+70      0x06    -       0x0E    0x10    0x03    0x0D
+71      0x06    -       0x0E    0x10    0x03    0x0D
+72      0x06    -       0x0E    0x10    0x03    0x0D
+73      0x06    -       0x0E    0x10    0x03    0x0D
+74      0x06    -       0x0E    0x10    0x03    0x0D
+75      0x06    -       0x0E    0x10    0x03    0x0D
+76      0x06    -       0x0E    0x10    0x03    0x0D
+77      0x06    -       0x0E    0x10    0x03    0x0D
+78      0x06    -       0x0E    0x10    0x03    0x0D
+79      0x06    -       0x0E    0x10    0x03    0x0D
+80      0x06    -       0x0E    0x10    0x03    0x0D
+81      0x06    -       0x0E    0x10    0x03    0x0D
+82      0x06    -       0x0E    0x10    0x03    0x0D
+83      0x06    -       0x0E    0x10    0x03    0x0D
+84      0x06    -       0x0E    0x10    0x03    0x0D
+85      0x06    -       0x0E    0x10    0x03    0x0D
+86      0x06    -       0x0E    0x10    0x03    0x0D
+87      0x06    -       0x0E    0x10    0x03    0x0D
+88      0x06    -       0x0E    0x10    0x03    0x0D
+89      0x06    -       0x0E    0x10    0x03    0x0D
+90      NULL    -       -       0x03    NULL    NULL
+91      NULL    -       -       0x03    NULL    NULL
+92      NULL    -       -       0x03    NULL    NULL
+93      NULL    -       -       0x03    NULL    NULL
+94      NULL    -       -       0x03    NULL    NULL
+95      NULL    -       -       0x03    NULL    NULL
+96      NULL    -       -       0x03    NULL    NULL
+97      NULL    -       -       0x03    NULL    NULL
+98      NULL    -       -       0x03    NULL    NULL
+99      NULL    -       -       0x03    NULL    NULL
+100     NULL    -       -       0x03    NULL    NULL
+101     NULL    -       -       0x03    NULL    NULL
+102     NULL    -       -       0x03    NULL    NULL
+103     NULL    -       -       0x03    NULL    NULL
+104     NULL    -       -       0x03    NULL    NULL
+105     NULL    -       -       0x03    NULL    NULL
+106     NULL    -       -       0x03    NULL    NULL
+107     NULL    -       -       0x03    NULL    NULL
+108     NULL    -       -       0x03    NULL    NULL
+109     NULL    -       -       0x03    NULL    NULL
+110     NULL    -       -       0x03    NULL    NULL
+111     NULL    -       -       0x03    NULL    NULL
+112     NULL    -       -       0x03    NULL    NULL
+113     NULL    -       -       0x03    NULL    NULL
+114     NULL    -       -       0x03    NULL    NULL
+115     NULL    -       -       0x03    NULL    NULL
+116     NULL    -       -       0x03    NULL    NULL
+117     NULL    -       -       0x03    NULL    NULL
+118     NULL    -       -       0x03    NULL    NULL
+119     NULL    -       -       0x03    NULL    NULL
+120     NULL    -       -       0x03    NULL    NULL
+121     NULL    -       -       0x03    NULL    NULL
+122     NULL    -       -       0x03    NULL    NULL
+123     NULL    -       -       0x03    NULL    NULL
+124     NULL    -       -       0x03    NULL    NULL
+125     NULL    -       -       0x03    NULL    NULL
+126     NULL    -       -       0x03    NULL    NULL
+127     NULL    -       -       0x03    NULL    NULL
+128     NULL    -       -       0x03    NULL    NULL
+129     NULL    -       -       0x03    NULL    NULL
+130     NULL    -       -       0x03    NULL    NULL
+131     NULL    -       -       0x03    NULL    NULL
+132     NULL    -       -       0x03    NULL    NULL
+133     NULL    -       -       0x03    NULL    NULL
+134     NULL    -       -       0x03    NULL    NULL
+135     NULL    -       -       0x03    NULL    NULL
+136     NULL    -       -       0x03    NULL    NULL
+137     NULL    -       -       0x03    NULL    NULL
+138     NULL    -       -       0x03    NULL    NULL
+139     NULL    -       -       0x03    NULL    NULL
+140     NULL    -       -       0x03    NULL    NULL
+141     NULL    -       -       0x03    NULL    NULL
+142     NULL    -       -       0x03    NULL    NULL
+143     NULL    -       -       0x03    NULL    NULL
+144     NULL    -       -       0x03    NULL    NULL
+145     NULL    -       -       0x03    NULL    NULL
+146     NULL    -       -       0x03    NULL    NULL</t>
   </si>
 </sst>
 </file>
@@ -195,6 +568,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1302,4 +1687,320 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:E58"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:E58"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:E58"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>